--- a/info2.xlsx
+++ b/info2.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,40 +393,29 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="str">
-        <v>le numero 1</v>
+        <v>le numero 1 utilisateur 1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="str">
-        <v>le numero 2</v>
+        <v>le numero 2 modifié 2e utilisateur 1</v>
       </c>
       <c r="C3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <v>le numero 3</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>